--- a/biology/Médecine/Articulation_métacarpo-phalangienne/Articulation_métacarpo-phalangienne.xlsx
+++ b/biology/Médecine/Articulation_métacarpo-phalangienne/Articulation_métacarpo-phalangienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Articulation_m%C3%A9tacarpo-phalangienne</t>
+          <t>Articulation_métacarpo-phalangienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les articulations métacarpo-phalangiennes sont les articulations situées à la base des doigts au niveau de la paume de la main et qui unissent les métacarpiens au phalanges proximales de la main.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Articulation_m%C3%A9tacarpo-phalangienne</t>
+          <t>Articulation_métacarpo-phalangienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les articulations métacarpo-phalangiennes sont des articulations ellipsoïdes.
-Surfaces articulaires
-Elles sont constituées des surfaces articulaires arrondies de la tête des métacarpiens et des cavités peu profondes des bases des phalanges proximales.
-Moyens d'unions
-La capsule articulaire lâche s'insère sur une crête osseuse de la tête métacarpienne et à proximité de la surface articulaire de la base de la phalange proximale.
-Elle est renforcée par le ligament palmaire des articulations métacarpo-phalangiennes et par deux ligaments collatéraux des articulations métacarpo-phalangiennes.
-Le ligament palmaire s'attache fermement à la base de la phalange et de façon plus lâche au niveau du col du métacarpien. Il fusionne latéralement avec les ligaments collatéraux et devant avec le ligament métacarpien transverse profond.
-Les tendons des muscles interosseux et des muscles lombricaux de la main contribuent également à la stabilité latérale de l'articulation[1].
 </t>
         </is>
       </c>
@@ -531,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Articulation_m%C3%A9tacarpo-phalangienne</t>
+          <t>Articulation_métacarpo-phalangienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Anatomie fonctionnelle</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les articulations métacarpo-phalangiennes possèdent deux degrés de liberté :
-la flexion d'une amplitude de 90° et extension d'une d'amplitude de 30°,
-l'adduction d'une amplitude de 30° et abduction d'une amplitude de 30°.
-Motricité musculaire
-Pour la flexion et l'extension les muscles suivant interviennent :
+          <t>Surfaces articulaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont constituées des surfaces articulaires arrondies de la tête des métacarpiens et des cavités peu profondes des bases des phalanges proximales.
 </t>
         </is>
       </c>
@@ -566,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Articulation_m%C3%A9tacarpo-phalangienne</t>
+          <t>Articulation_métacarpo-phalangienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,12 +590,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aspect clinique</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'arthrite des articulations métacarpo-phalangiennes est une caractéristique de la polyarthrite rhumatoïde,. Alors que celle des articulations interphalangiennes distales est celle de l'arthrose.
+          <t>Moyens d'unions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La capsule articulaire lâche s'insère sur une crête osseuse de la tête métacarpienne et à proximité de la surface articulaire de la base de la phalange proximale.
+Elle est renforcée par le ligament palmaire des articulations métacarpo-phalangiennes et par deux ligaments collatéraux des articulations métacarpo-phalangiennes.
+Le ligament palmaire s'attache fermement à la base de la phalange et de façon plus lâche au niveau du col du métacarpien. Il fusionne latéralement avec les ligaments collatéraux et devant avec le ligament métacarpien transverse profond.
+Les tendons des muscles interosseux et des muscles lombricaux de la main contribuent également à la stabilité latérale de l'articulation.
 </t>
         </is>
       </c>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Articulation_m%C3%A9tacarpo-phalangienne</t>
+          <t>Articulation_métacarpo-phalangienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,10 +630,116 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Anatomie fonctionnelle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les articulations métacarpo-phalangiennes possèdent deux degrés de liberté :
+la flexion d'une amplitude de 90° et extension d'une d'amplitude de 30°,
+l'adduction d'une amplitude de 30° et abduction d'une amplitude de 30°.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Articulation_métacarpo-phalangienne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_m%C3%A9tacarpo-phalangienne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie fonctionnelle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Motricité musculaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la flexion et l'extension les muscles suivant interviennent :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Articulation_métacarpo-phalangienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_m%C3%A9tacarpo-phalangienne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arthrite des articulations métacarpo-phalangiennes est une caractéristique de la polyarthrite rhumatoïde,. Alors que celle des articulations interphalangiennes distales est celle de l'arthrose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Articulation_métacarpo-phalangienne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_m%C3%A9tacarpo-phalangienne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez de nombreux quadrupèdes, en particulier les chevaux, l'articulation métacarpo-phalangienne est appelée « boulet ».
 </t>
